--- a/data/pca/factorExposure/factorExposure_2013-06-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-11.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002953249454284121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001625026847869239</v>
+      </c>
+      <c r="C2">
+        <v>0.0314920112236738</v>
+      </c>
+      <c r="D2">
+        <v>0.004660166524641468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001909787559117519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005836534875522888</v>
+      </c>
+      <c r="C4">
+        <v>0.08450977238758424</v>
+      </c>
+      <c r="D4">
+        <v>0.0805523358671745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005439901977128068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01280524901568834</v>
+      </c>
+      <c r="C6">
+        <v>0.1071497130526472</v>
+      </c>
+      <c r="D6">
+        <v>0.03527818371245361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001689102767039474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004880618626063144</v>
+      </c>
+      <c r="C7">
+        <v>0.05145915700720445</v>
+      </c>
+      <c r="D7">
+        <v>0.03798907213484431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.003232723764059591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005599250770249815</v>
+      </c>
+      <c r="C8">
+        <v>0.03607032234761323</v>
+      </c>
+      <c r="D8">
+        <v>0.04229272996893411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005706777893297249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003915180172649713</v>
+      </c>
+      <c r="C9">
+        <v>0.06870499003932555</v>
+      </c>
+      <c r="D9">
+        <v>0.07036838509238265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005411397798043049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005800890502256383</v>
+      </c>
+      <c r="C10">
+        <v>0.07821204277164155</v>
+      </c>
+      <c r="D10">
+        <v>-0.2117106965144039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005582271327677802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.00491227721749622</v>
+      </c>
+      <c r="C11">
+        <v>0.07852047114953778</v>
+      </c>
+      <c r="D11">
+        <v>0.06554771619129433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001178079857232903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003735394428045114</v>
+      </c>
+      <c r="C12">
+        <v>0.06305793637570353</v>
+      </c>
+      <c r="D12">
+        <v>0.04731257483893156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00372992027120383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008541388982495988</v>
+      </c>
+      <c r="C13">
+        <v>0.06949195054252795</v>
+      </c>
+      <c r="D13">
+        <v>0.07072509450365176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.004147189450400919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001575722719988643</v>
+      </c>
+      <c r="C14">
+        <v>0.04659392255587461</v>
+      </c>
+      <c r="D14">
+        <v>0.01358777114795279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003222051880743499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005538541145238664</v>
+      </c>
+      <c r="C15">
+        <v>0.03741727540050486</v>
+      </c>
+      <c r="D15">
+        <v>0.04125820262869483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.003140174150448118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004673423910726365</v>
+      </c>
+      <c r="C16">
+        <v>0.0645365376268206</v>
+      </c>
+      <c r="D16">
+        <v>0.05041803712623716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001175160867951379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008871212873036802</v>
+      </c>
+      <c r="C20">
+        <v>0.06496282315681511</v>
+      </c>
+      <c r="D20">
+        <v>0.05733896836078579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.0044956359020561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009730481615400792</v>
+      </c>
+      <c r="C21">
+        <v>0.02371902678614882</v>
+      </c>
+      <c r="D21">
+        <v>0.03663584672303449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01586633533275066</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00725894046361046</v>
+      </c>
+      <c r="C22">
+        <v>0.08680921890323605</v>
+      </c>
+      <c r="D22">
+        <v>0.1089013313092816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.016061788343319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007030565596212212</v>
+      </c>
+      <c r="C23">
+        <v>0.08930730353824659</v>
+      </c>
+      <c r="D23">
+        <v>0.1056140745214515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.004069963170807826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004396180704570532</v>
+      </c>
+      <c r="C24">
+        <v>0.07220445040896678</v>
+      </c>
+      <c r="D24">
+        <v>0.06013003027159224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005630580482115166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002564037649451542</v>
+      </c>
+      <c r="C25">
+        <v>0.07657395745140815</v>
+      </c>
+      <c r="D25">
+        <v>0.0649856870066636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006243635894395017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003422753101897737</v>
+      </c>
+      <c r="C26">
+        <v>0.04057703274214575</v>
+      </c>
+      <c r="D26">
+        <v>0.0278355364450575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004730890763089969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0003849693797604251</v>
+      </c>
+      <c r="C28">
+        <v>0.127440389007466</v>
+      </c>
+      <c r="D28">
+        <v>-0.3071496176905078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002048812243900232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003195011963939857</v>
+      </c>
+      <c r="C29">
+        <v>0.04756622640744608</v>
+      </c>
+      <c r="D29">
+        <v>0.01714631381375634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006008990308515402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008674150611764091</v>
+      </c>
+      <c r="C30">
+        <v>0.136792704074318</v>
+      </c>
+      <c r="D30">
+        <v>0.1096311868007739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001283365143742908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006039549359952067</v>
+      </c>
+      <c r="C31">
+        <v>0.04551773863145532</v>
+      </c>
+      <c r="D31">
+        <v>0.0354350661058349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001605464190283174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003841114093990258</v>
+      </c>
+      <c r="C32">
+        <v>0.04069734124833228</v>
+      </c>
+      <c r="D32">
+        <v>0.01333969626815795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003058884808568493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.00754980243802973</v>
+      </c>
+      <c r="C33">
+        <v>0.08178503619690032</v>
+      </c>
+      <c r="D33">
+        <v>0.07631861126477363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005459051888865003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003494693529752589</v>
+      </c>
+      <c r="C34">
+        <v>0.05656820201527105</v>
+      </c>
+      <c r="D34">
+        <v>0.04512945773555332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004151260322617037</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004863610819298762</v>
+      </c>
+      <c r="C35">
+        <v>0.03912782818805365</v>
+      </c>
+      <c r="D35">
+        <v>0.01213636178439453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004621695253191283</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001517305136821758</v>
+      </c>
+      <c r="C36">
+        <v>0.02361859982192486</v>
+      </c>
+      <c r="D36">
+        <v>0.02371270361882959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001971080842791293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009564823100485158</v>
+      </c>
+      <c r="C38">
+        <v>0.03413244700797534</v>
+      </c>
+      <c r="D38">
+        <v>0.03139102982369454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01397628549142895</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001220442967561071</v>
+      </c>
+      <c r="C39">
+        <v>0.114837688556725</v>
+      </c>
+      <c r="D39">
+        <v>0.08240177974828015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008622467659527778</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00205504556467</v>
+      </c>
+      <c r="C40">
+        <v>0.08502552249547674</v>
+      </c>
+      <c r="D40">
+        <v>0.02765707548845719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001420110875438384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007267678475064082</v>
+      </c>
+      <c r="C41">
+        <v>0.03914773776045401</v>
+      </c>
+      <c r="D41">
+        <v>0.03760285933697174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002476245803713965</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002999696263150745</v>
+      </c>
+      <c r="C43">
+        <v>0.05056333143693083</v>
+      </c>
+      <c r="D43">
+        <v>0.03025899224140336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005309055923025027</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003269735551683179</v>
+      </c>
+      <c r="C44">
+        <v>0.1068339438710994</v>
+      </c>
+      <c r="D44">
+        <v>0.08367141148227325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.003258943651060769</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.00233415207675552</v>
+      </c>
+      <c r="C46">
+        <v>0.03457844789098607</v>
+      </c>
+      <c r="D46">
+        <v>0.03370069587159485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001913509197022407</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002923411060766878</v>
+      </c>
+      <c r="C47">
+        <v>0.03855564222102663</v>
+      </c>
+      <c r="D47">
+        <v>0.02998157358229065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004229109461000398</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006415309255955543</v>
+      </c>
+      <c r="C48">
+        <v>0.02932974203436752</v>
+      </c>
+      <c r="D48">
+        <v>0.0311075154312893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01563499114984962</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01357577029425117</v>
+      </c>
+      <c r="C49">
+        <v>0.1715779562075026</v>
+      </c>
+      <c r="D49">
+        <v>0.03488349161109662</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0005477818083378856</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003511176124485887</v>
+      </c>
+      <c r="C50">
+        <v>0.0410676976737951</v>
+      </c>
+      <c r="D50">
+        <v>0.04023684144508785</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001859816700530575</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004033971786610268</v>
+      </c>
+      <c r="C51">
+        <v>0.01966954719489226</v>
+      </c>
+      <c r="D51">
+        <v>0.03160970659057406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006752651523753591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02009123248428057</v>
+      </c>
+      <c r="C53">
+        <v>0.1656862007079112</v>
+      </c>
+      <c r="D53">
+        <v>0.05329847982062677</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.000894188814063061</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008291331515362509</v>
+      </c>
+      <c r="C54">
+        <v>0.0558414900148174</v>
+      </c>
+      <c r="D54">
+        <v>0.04158232733275528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004537155351804593</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009251651241723866</v>
+      </c>
+      <c r="C55">
+        <v>0.1054038138021945</v>
+      </c>
+      <c r="D55">
+        <v>0.05375505684792025</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002738231995289912</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01932669837348719</v>
+      </c>
+      <c r="C56">
+        <v>0.1715297548565456</v>
+      </c>
+      <c r="D56">
+        <v>0.05177035914153093</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007387852301818618</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01919838986428038</v>
+      </c>
+      <c r="C58">
+        <v>0.1005001770796994</v>
+      </c>
+      <c r="D58">
+        <v>0.07901909754015364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006479170657583311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009151956930753333</v>
+      </c>
+      <c r="C59">
+        <v>0.1696668778701233</v>
+      </c>
+      <c r="D59">
+        <v>-0.2737034752846466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006643929398223264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02291389785971615</v>
+      </c>
+      <c r="C60">
+        <v>0.2205044484572406</v>
+      </c>
+      <c r="D60">
+        <v>0.02870990332317856</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01606862931556598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002270968308911406</v>
+      </c>
+      <c r="C61">
+        <v>0.09477714378647484</v>
+      </c>
+      <c r="D61">
+        <v>0.06135407712743034</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1856322183096249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1433768831371011</v>
+      </c>
+      <c r="C62">
+        <v>0.0739585422129992</v>
+      </c>
+      <c r="D62">
+        <v>0.05301687212849172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002360706929071198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00636881433220022</v>
+      </c>
+      <c r="C63">
+        <v>0.0584963545582077</v>
+      </c>
+      <c r="D63">
+        <v>0.026775178082259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007429479637739028</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01441090960734415</v>
+      </c>
+      <c r="C64">
+        <v>0.10025185382547</v>
+      </c>
+      <c r="D64">
+        <v>0.06751987274011464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0002842247531449544</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01660255291612503</v>
+      </c>
+      <c r="C65">
+        <v>0.1123451043493689</v>
+      </c>
+      <c r="D65">
+        <v>0.03078971096394575</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01086108439755515</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0116873658777005</v>
+      </c>
+      <c r="C66">
+        <v>0.1526918658375865</v>
+      </c>
+      <c r="D66">
+        <v>0.1196144997611973</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002148459958509189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01559551500693681</v>
+      </c>
+      <c r="C67">
+        <v>0.06303425568290126</v>
+      </c>
+      <c r="D67">
+        <v>0.04210848067425962</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007766832237178792</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001587251712752466</v>
+      </c>
+      <c r="C68">
+        <v>0.1135165083712767</v>
+      </c>
+      <c r="D68">
+        <v>-0.2624426242157685</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.004030649339319659</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005742443773189733</v>
+      </c>
+      <c r="C69">
+        <v>0.04508295115278846</v>
+      </c>
+      <c r="D69">
+        <v>0.04551867967667103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001644878453760225</v>
+      </c>
+      <c r="C70">
+        <v>0.001975327722022378</v>
+      </c>
+      <c r="D70">
+        <v>0.002425629788320752</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003157218634852031</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006360783694759971</v>
+      </c>
+      <c r="C71">
+        <v>0.1151113717780218</v>
+      </c>
+      <c r="D71">
+        <v>-0.2812547337525346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.009443936955460952</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01490296942243157</v>
+      </c>
+      <c r="C72">
+        <v>0.1496890277588437</v>
+      </c>
+      <c r="D72">
+        <v>0.02732512879547044</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01378026327351823</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02976388753970787</v>
+      </c>
+      <c r="C73">
+        <v>0.2836850548288441</v>
+      </c>
+      <c r="D73">
+        <v>0.05301713355848062</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.0050860890513533</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001624286064753532</v>
+      </c>
+      <c r="C74">
+        <v>0.1028683908104483</v>
+      </c>
+      <c r="D74">
+        <v>0.04306471563788115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006910679721410453</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01047927977258242</v>
+      </c>
+      <c r="C75">
+        <v>0.1308283059693285</v>
+      </c>
+      <c r="D75">
+        <v>0.04142231000830959</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01096010776741027</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02102740902485658</v>
+      </c>
+      <c r="C76">
+        <v>0.1448111200014853</v>
+      </c>
+      <c r="D76">
+        <v>0.07335947222521366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001276573724647278</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02322770663855239</v>
+      </c>
+      <c r="C77">
+        <v>0.127756466956858</v>
+      </c>
+      <c r="D77">
+        <v>0.06188421837688084</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.000669583490657238</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0138114091176108</v>
+      </c>
+      <c r="C78">
+        <v>0.09015560648019567</v>
+      </c>
+      <c r="D78">
+        <v>0.06764544444225112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.027064073637312</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0365888198051224</v>
+      </c>
+      <c r="C79">
+        <v>0.1561070468065321</v>
+      </c>
+      <c r="D79">
+        <v>0.03722268161873142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005160397624756223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01053416494564516</v>
+      </c>
+      <c r="C80">
+        <v>0.0414030029964501</v>
+      </c>
+      <c r="D80">
+        <v>0.03509148554954897</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0001431416827870649</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0145531324683769</v>
+      </c>
+      <c r="C81">
+        <v>0.1198394244634956</v>
+      </c>
+      <c r="D81">
+        <v>0.05884645121483002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006305882648630312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01943889237506544</v>
+      </c>
+      <c r="C82">
+        <v>0.1415282498894094</v>
+      </c>
+      <c r="D82">
+        <v>0.04853298929075264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007382946238885846</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009788310114478321</v>
+      </c>
+      <c r="C83">
+        <v>0.05679405502470557</v>
+      </c>
+      <c r="D83">
+        <v>0.04806184353224852</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01334214428991848</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01170345255813477</v>
+      </c>
+      <c r="C84">
+        <v>0.03010555913738729</v>
+      </c>
+      <c r="D84">
+        <v>0.00100068672361553</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0159286857806241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02773852242964556</v>
+      </c>
+      <c r="C85">
+        <v>0.1290261801829229</v>
+      </c>
+      <c r="D85">
+        <v>0.05299050091487834</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003727162303468894</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005185871599741579</v>
+      </c>
+      <c r="C86">
+        <v>0.04664181047615991</v>
+      </c>
+      <c r="D86">
+        <v>0.02377115648301901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007909741883669665</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009590120192390753</v>
+      </c>
+      <c r="C87">
+        <v>0.1265210865702684</v>
+      </c>
+      <c r="D87">
+        <v>0.08144509118008243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01456190841212677</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003082563975431234</v>
+      </c>
+      <c r="C88">
+        <v>0.06931504510354514</v>
+      </c>
+      <c r="D88">
+        <v>0.0207301765603207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01463038369256976</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001171018027459199</v>
+      </c>
+      <c r="C89">
+        <v>0.1653776650940703</v>
+      </c>
+      <c r="D89">
+        <v>-0.3431815386712334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001769041978166143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.0074934588965357</v>
+      </c>
+      <c r="C90">
+        <v>0.1467389229203366</v>
+      </c>
+      <c r="D90">
+        <v>-0.3173461065736066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001334035670484656</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0100820187458232</v>
+      </c>
+      <c r="C91">
+        <v>0.1024763725765235</v>
+      </c>
+      <c r="D91">
+        <v>0.02407508334420695</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01453033740140421</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000650714280954244</v>
+      </c>
+      <c r="C92">
+        <v>0.1551035936386483</v>
+      </c>
+      <c r="D92">
+        <v>-0.326040448057664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001150334292399413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005270179647815172</v>
+      </c>
+      <c r="C93">
+        <v>0.1277671252972344</v>
+      </c>
+      <c r="D93">
+        <v>-0.3091303441404334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002682808976090809</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02176909370094075</v>
+      </c>
+      <c r="C94">
+        <v>0.1566047539724145</v>
+      </c>
+      <c r="D94">
+        <v>0.03861337333602145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.006564295589862921</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01568333692559414</v>
+      </c>
+      <c r="C95">
+        <v>0.1221937161150888</v>
+      </c>
+      <c r="D95">
+        <v>0.06960347422135256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.005003224943736249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03471874708483608</v>
+      </c>
+      <c r="C97">
+        <v>0.1747479258444507</v>
+      </c>
+      <c r="D97">
+        <v>0.0433848517906857</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00709825507664549</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03541843309967527</v>
+      </c>
+      <c r="C98">
+        <v>0.2576185118318136</v>
+      </c>
+      <c r="D98">
+        <v>0.0445468237268311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9801587778375174</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9829305512441331</v>
+      </c>
+      <c r="C99">
+        <v>-0.1074518083128654</v>
+      </c>
+      <c r="D99">
+        <v>-0.03257554865114773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001995095845859076</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003245568597366493</v>
+      </c>
+      <c r="C101">
+        <v>0.04772063407645136</v>
+      </c>
+      <c r="D101">
+        <v>0.01745081126733156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
